--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H2">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I2">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J2">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N2">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O2">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P2">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q2">
-        <v>5.145588266886668</v>
+        <v>3.690863723306666</v>
       </c>
       <c r="R2">
-        <v>46.31029440198001</v>
+        <v>33.21777350975999</v>
       </c>
       <c r="S2">
-        <v>0.02985271283466413</v>
+        <v>0.02492401872045746</v>
       </c>
       <c r="T2">
-        <v>0.0363918478574549</v>
+        <v>0.02897675580586008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H3">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I3">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J3">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>24.005506</v>
       </c>
       <c r="O3">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P3">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q3">
-        <v>12.91870975421445</v>
+        <v>10.51451831913778</v>
       </c>
       <c r="R3">
-        <v>116.26838778793</v>
+        <v>94.63066487223999</v>
       </c>
       <c r="S3">
-        <v>0.074949357096595</v>
+        <v>0.07100344826278177</v>
       </c>
       <c r="T3">
-        <v>0.09136675837735571</v>
+        <v>0.08254887001813661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H4">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I4">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J4">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N4">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O4">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P4">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q4">
-        <v>6.593982700643336</v>
+        <v>7.293235656684443</v>
       </c>
       <c r="R4">
-        <v>59.34584430579001</v>
+        <v>65.63912091015999</v>
       </c>
       <c r="S4">
-        <v>0.03825573710703273</v>
+        <v>0.04925046159034452</v>
       </c>
       <c r="T4">
-        <v>0.0466355259632333</v>
+        <v>0.05725876773066035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H5">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I5">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J5">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N5">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O5">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P5">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q5">
-        <v>4.446645370912501</v>
+        <v>1.73823859596</v>
       </c>
       <c r="R5">
-        <v>26.679872225475</v>
+        <v>10.42943157576</v>
       </c>
       <c r="S5">
-        <v>0.02579771650011094</v>
+        <v>0.0117381443895508</v>
       </c>
       <c r="T5">
-        <v>0.02096574559552596</v>
+        <v>0.009097873217659478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H6">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I6">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J6">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N6">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O6">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P6">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q6">
-        <v>8.632135958693334</v>
+        <v>6.51053135056</v>
       </c>
       <c r="R6">
-        <v>77.68922362824001</v>
+        <v>58.59478215503999</v>
       </c>
       <c r="S6">
-        <v>0.05008031396195772</v>
+        <v>0.04396494084482352</v>
       </c>
       <c r="T6">
-        <v>0.06105023608577666</v>
+        <v>0.05111380187794017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>7.015753</v>
       </c>
       <c r="I7">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J7">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N7">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O7">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P7">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q7">
-        <v>7.453470506838667</v>
+        <v>6.568727927514666</v>
       </c>
       <c r="R7">
-        <v>67.081234561548</v>
+        <v>59.118551347632</v>
       </c>
       <c r="S7">
-        <v>0.0432421529126582</v>
+        <v>0.04435793627413868</v>
       </c>
       <c r="T7">
-        <v>0.05271419915978176</v>
+        <v>0.05157069980904058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>7.015753</v>
       </c>
       <c r="I8">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J8">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>24.005506</v>
       </c>
       <c r="O8">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P8">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q8">
         <v>18.71296674844645</v>
@@ -948,10 +948,10 @@
         <v>168.416700736018</v>
       </c>
       <c r="S8">
-        <v>0.1085653949852444</v>
+        <v>0.1263667175269546</v>
       </c>
       <c r="T8">
-        <v>0.1323462748182752</v>
+        <v>0.1469144104261631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>7.015753</v>
       </c>
       <c r="I9">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J9">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N9">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O9">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P9">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q9">
-        <v>9.551494024139336</v>
+        <v>12.97996467262911</v>
       </c>
       <c r="R9">
-        <v>85.963446217254</v>
+        <v>116.819682053662</v>
       </c>
       <c r="S9">
-        <v>0.0554140738542154</v>
+        <v>0.08765235097914896</v>
       </c>
       <c r="T9">
-        <v>0.06755233790755302</v>
+        <v>0.1019049455314212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>7.015753</v>
       </c>
       <c r="I10">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J10">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N10">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O10">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P10">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q10">
-        <v>6.4410400536225</v>
+        <v>3.093589269597</v>
       </c>
       <c r="R10">
-        <v>38.646240321735</v>
+        <v>18.561535617582</v>
       </c>
       <c r="S10">
-        <v>0.0373684230265284</v>
+        <v>0.02089068647589173</v>
       </c>
       <c r="T10">
-        <v>0.03036923250462186</v>
+        <v>0.01619172593895905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>7.015753</v>
       </c>
       <c r="I11">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J11">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N11">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O11">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P11">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q11">
-        <v>12.50379304406933</v>
+        <v>11.586965087692</v>
       </c>
       <c r="R11">
-        <v>112.534137396624</v>
+        <v>104.282685789228</v>
       </c>
       <c r="S11">
-        <v>0.07254217083220312</v>
+        <v>0.07824556971184797</v>
       </c>
       <c r="T11">
-        <v>0.08843228616427819</v>
+        <v>0.09096858704289264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H12">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I12">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J12">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N12">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O12">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P12">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q12">
-        <v>10.304751761712</v>
+        <v>0.9877220363733332</v>
       </c>
       <c r="R12">
-        <v>61.82851057027201</v>
+        <v>8.88949832736</v>
       </c>
       <c r="S12">
-        <v>0.05978418389099283</v>
+        <v>0.006669984147537671</v>
       </c>
       <c r="T12">
-        <v>0.04858647043777332</v>
+        <v>0.007754548094345576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H13">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I13">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J13">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>24.005506</v>
       </c>
       <c r="O13">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P13">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q13">
-        <v>25.871501992392</v>
+        <v>2.813818722182222</v>
       </c>
       <c r="R13">
-        <v>155.229011954352</v>
+        <v>25.32436849964</v>
       </c>
       <c r="S13">
-        <v>0.1500964475821963</v>
+        <v>0.01900142507694975</v>
       </c>
       <c r="T13">
-        <v>0.1219830419791997</v>
+        <v>0.02209112665952985</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H14">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I14">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J14">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N14">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O14">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P14">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q14">
-        <v>13.205361821976</v>
+        <v>1.951762545195555</v>
       </c>
       <c r="R14">
-        <v>79.232170931856</v>
+        <v>17.56586290676</v>
       </c>
       <c r="S14">
-        <v>0.07661240151804966</v>
+        <v>0.01318004940338456</v>
       </c>
       <c r="T14">
-        <v>0.06226272467498466</v>
+        <v>0.01532317389721638</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H15">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I15">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J15">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N15">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O15">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P15">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q15">
-        <v>8.90502200001</v>
+        <v>0.46517473806</v>
       </c>
       <c r="R15">
-        <v>35.62008800004</v>
+        <v>2.79104842836</v>
       </c>
       <c r="S15">
-        <v>0.05166349322261467</v>
+        <v>0.003141276608637336</v>
       </c>
       <c r="T15">
-        <v>0.02799120238611974</v>
+        <v>0.002434706490100986</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H16">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I16">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J16">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N16">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O16">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P16">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q16">
-        <v>17.287045448256</v>
+        <v>1.74230092616</v>
       </c>
       <c r="R16">
-        <v>103.722272689536</v>
+        <v>15.68070833544</v>
       </c>
       <c r="S16">
-        <v>0.1002927511413226</v>
+        <v>0.01176557688274044</v>
       </c>
       <c r="T16">
-        <v>0.08150769101968088</v>
+        <v>0.01367870294393619</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,19 +1467,19 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H17">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I17">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J17">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N17">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O17">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P17">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q17">
-        <v>0.5989121144266668</v>
+        <v>6.767391192576</v>
       </c>
       <c r="R17">
-        <v>5.390209029840001</v>
+        <v>40.604347155456</v>
       </c>
       <c r="S17">
-        <v>0.003474656431459593</v>
+        <v>0.04569948863387192</v>
       </c>
       <c r="T17">
-        <v>0.004235768082818106</v>
+        <v>0.03542026234342034</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,19 +1529,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H18">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I18">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J18">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>24.005506</v>
       </c>
       <c r="O18">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P18">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q18">
-        <v>1.503651550271111</v>
+        <v>19.278917890624</v>
       </c>
       <c r="R18">
-        <v>13.53286395244</v>
+        <v>115.673507343744</v>
       </c>
       <c r="S18">
-        <v>0.008723604689187557</v>
+        <v>0.1301885267076686</v>
       </c>
       <c r="T18">
-        <v>0.01063448057051816</v>
+        <v>0.1009051065545437</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H19">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I19">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J19">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N19">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O19">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P19">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q19">
-        <v>0.7674955548133335</v>
+        <v>13.372528071616</v>
       </c>
       <c r="R19">
-        <v>6.907459993320001</v>
+        <v>80.23516842969599</v>
       </c>
       <c r="S19">
-        <v>0.004452712345285729</v>
+        <v>0.09030329076961888</v>
       </c>
       <c r="T19">
-        <v>0.00542806381182518</v>
+        <v>0.0699912919192564</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H20">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I20">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J20">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N20">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O20">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P20">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q20">
-        <v>0.51755982855</v>
+        <v>3.187151151264</v>
       </c>
       <c r="R20">
-        <v>3.1053589713</v>
+        <v>12.748604605056</v>
       </c>
       <c r="S20">
-        <v>0.003002681935492188</v>
+        <v>0.02152250012846959</v>
       </c>
       <c r="T20">
-        <v>0.002440272787846939</v>
+        <v>0.01112095012622175</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H21">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I21">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J21">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N21">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O21">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P21">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q21">
-        <v>1.004722984213333</v>
+        <v>11.937398891904</v>
       </c>
       <c r="R21">
-        <v>9.042506857919999</v>
+        <v>71.624393351424</v>
       </c>
       <c r="S21">
-        <v>0.005829014132188831</v>
+        <v>0.0806120127320297</v>
       </c>
       <c r="T21">
-        <v>0.007105839815376936</v>
+        <v>0.0624798815994479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.383087</v>
+      </c>
+      <c r="I22">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J22">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.808848</v>
+      </c>
+      <c r="N22">
+        <v>8.426544</v>
+      </c>
+      <c r="O22">
+        <v>0.1240735410877844</v>
+      </c>
+      <c r="P22">
+        <v>0.1265382238946467</v>
+      </c>
+      <c r="Q22">
+        <v>0.3586777179253333</v>
+      </c>
+      <c r="R22">
+        <v>3.228099461328</v>
+      </c>
+      <c r="S22">
+        <v>0.002422113311778645</v>
+      </c>
+      <c r="T22">
+        <v>0.002815957841980174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.383087</v>
+      </c>
+      <c r="I23">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J23">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.001835333333334</v>
+      </c>
+      <c r="N23">
+        <v>24.005506</v>
+      </c>
+      <c r="O23">
+        <v>0.3534602246216307</v>
+      </c>
+      <c r="P23">
+        <v>0.3604816034820782</v>
+      </c>
+      <c r="Q23">
+        <v>1.021799697446889</v>
+      </c>
+      <c r="R23">
+        <v>9.196197277022</v>
+      </c>
+      <c r="S23">
+        <v>0.006900107047276101</v>
+      </c>
+      <c r="T23">
+        <v>0.008022089823704963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.383087</v>
+      </c>
+      <c r="I24">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J24">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.550351333333333</v>
+      </c>
+      <c r="N24">
+        <v>16.651054</v>
+      </c>
+      <c r="O24">
+        <v>0.2451723070126871</v>
+      </c>
+      <c r="P24">
+        <v>0.2500425796309677</v>
+      </c>
+      <c r="Q24">
+        <v>0.7087558137442221</v>
+      </c>
+      <c r="R24">
+        <v>6.378802323697999</v>
+      </c>
+      <c r="S24">
+        <v>0.004786154270190133</v>
+      </c>
+      <c r="T24">
+        <v>0.005564400552413341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.383087</v>
+      </c>
+      <c r="I25">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J25">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.322847</v>
+      </c>
+      <c r="N25">
+        <v>2.645694</v>
+      </c>
+      <c r="O25">
+        <v>0.0584333191427063</v>
+      </c>
+      <c r="P25">
+        <v>0.0397293860601361</v>
+      </c>
+      <c r="Q25">
+        <v>0.168921829563</v>
+      </c>
+      <c r="R25">
+        <v>1.013530977378</v>
+      </c>
+      <c r="S25">
+        <v>0.001140711540156835</v>
+      </c>
+      <c r="T25">
+        <v>0.0008841302871948325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.383087</v>
+      </c>
+      <c r="I26">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J26">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.954692000000001</v>
+      </c>
+      <c r="N26">
+        <v>14.864076</v>
+      </c>
+      <c r="O26">
+        <v>0.2188606081351916</v>
+      </c>
+      <c r="P26">
+        <v>0.2232082069321711</v>
+      </c>
+      <c r="Q26">
+        <v>0.6326926980680001</v>
+      </c>
+      <c r="R26">
+        <v>5.694234282612</v>
+      </c>
+      <c r="S26">
+        <v>0.004272507963749964</v>
+      </c>
+      <c r="T26">
+        <v>0.004967233467954276</v>
       </c>
     </row>
   </sheetData>
